--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="174">
   <si>
     <t>種類</t>
     <rPh sb="0" eb="2">
@@ -524,37 +524,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>武器を次のものにする。名前と画像パスを変更する。マップ番号に依存しない。4回実行すれば最終装備</t>
-    <rPh sb="0" eb="2">
-      <t>ブキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>サイシュウ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ソウビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>setBoss()</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -602,10 +571,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>item1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>item1Image</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -659,10 +624,6 @@
   </si>
   <si>
     <t>Int?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>nil</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1024,13 +985,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>itemは設定されるか、nil</t>
-    <rPh sb="5" eb="7">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>名前、画像である。初期状態からsetNextQuest()を実行すると、武器か防具の</t>
     <rPh sb="0" eb="2">
       <t>ナマエ</t>
@@ -1138,55 +1092,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>また、武器クエストが先に設定されれば、次のsetNextQuest()は必ず防具クエストになる。逆も然りである。map依存であり、2回実行され、mapを移動し、再び実行すれば次のクエになる。</t>
-    <rPh sb="3" eb="5">
-      <t>ブキ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>カナラ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ボウグ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ギャク</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>シカ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>イゾン</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>フタタ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>ツギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>武器だと1 防具だと2</t>
     <rPh sb="0" eb="2">
       <t>ブキ</t>
@@ -1211,6 +1116,396 @@
     <rPh sb="8" eb="9">
       <t>ヘ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>""</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>""</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器を次のものにする。名前と画像パスを変更する。マップ番号に依存する。実行すればその場所のクエスト装備になる。</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イゾン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ソウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防具を次のものにする。名前と画像パスを変更する。マップ番号に依存する。実行すればその場所のクエスト装備になる。</t>
+    <rPh sb="0" eb="2">
+      <t>ボウグ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イゾン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ソウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>itemは設定されるか、""</t>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getItem(Int)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1~3 item番号</t>
+    <rPh sb="8" eb="10">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無し</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数にアイテム番号(1~3)を指定することで、アイテムを取得したことを設定できる。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また、武器クエストが先に設定されれば、次のsetNextQuest()は必ず防具クエストになる。逆も然りである。つまり、1マップ2回行う。</t>
+    <rPh sb="3" eb="5">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ボウグ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>シカ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getItemStatus()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムの取得状況</t>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Bool]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムの取得状況を返却する。例；[true,true,false]</t>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getQuestFinished</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムが全て回収できたか</t>
+    <rPh sb="5" eb="6">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムを全て集めた場合はtrue,そうでなければfalseが返却される</t>
+    <rPh sb="5" eb="6">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追記</t>
+    <rPh sb="0" eb="2">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムの取得状況は、初期状態では[false,false,false]に設定されている。</t>
+    <rPh sb="5" eb="9">
+      <t>シュトクジョウキョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mapごとのアイテム数で、getNextQuest()を行った時の結果が代わる。初期状態：草原→[false,true,true]:　：海岸→[false,false,true]　：他→[false,false,false]</t>
+    <rPh sb="10" eb="11">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="40" eb="44">
+      <t>ショキジョウタイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ソウゲン</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>カイガン</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ホカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getItem(1~3)でアイテム取得状況を変更できる。海岸で、getItem(1)を行った場合、取得状況は、[true,false,true]となる。</t>
+    <rPh sb="17" eb="19">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カイガン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="49" eb="53">
+      <t>シュトクジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全てアイテムを集めると取得状況は[true,true,true]となり、getQuestFinished()の返却値はtrueとなる。</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>シュトクジョウキョウ</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>ヘンキャクチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更(内部仕様</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ナイブシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nilだとクラッシュ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>したので</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更(初期値）</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Int?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーのレベルを管理します。HPと一緒の方式です。</t>
+    <rPh sb="10" eb="12">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レベル(0~?)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1491,7 +1786,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1523,6 +1818,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="43" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="42" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1872,10 +2170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T58"/>
+  <dimension ref="A2:U67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1968,7 +2266,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -2042,36 +2340,35 @@
         <v>37</v>
       </c>
       <c r="M14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:18">
+      <c r="A15" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" t="s">
-        <v>58</v>
+        <v>170</v>
+      </c>
+      <c r="D15" t="s">
+        <v>171</v>
+      </c>
+      <c r="E15" t="s">
+        <v>173</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
+        <v>172</v>
+      </c>
     </row>
     <row r="16" spans="1:18">
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -2079,13 +2376,13 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
@@ -2095,7 +2392,7 @@
     </row>
     <row r="17" spans="1:18">
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -2103,12 +2400,14 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
-      </c>
-      <c r="M17" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
@@ -2117,7 +2416,7 @@
     </row>
     <row r="18" spans="1:18">
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
@@ -2125,10 +2424,10 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -2137,132 +2436,133 @@
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
     </row>
-    <row r="20" spans="1:18">
-      <c r="A20" t="s">
+    <row r="19" spans="1:18">
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>43</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>44</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>68</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>47</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" t="s">
         <v>48</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
-      <c r="B21" t="s">
+    <row r="22" spans="1:18">
+      <c r="A22" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B22" t="s">
         <v>45</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="B22" t="s">
-        <v>46</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" t="s">
         <v>23</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G23" t="s">
         <v>24</v>
       </c>
-      <c r="H22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="8" t="s">
+      <c r="H23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
+      <c r="B26" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" t="s">
+        <v>15</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
@@ -2271,22 +2571,25 @@
       <c r="R27" s="5"/>
     </row>
     <row r="28" spans="1:18">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
@@ -2295,8 +2598,22 @@
       <c r="R28" s="5"/>
     </row>
     <row r="29" spans="1:18">
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="M29" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
@@ -2305,228 +2622,224 @@
       <c r="R29" s="5"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" t="s">
+      <c r="M30" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" t="s">
         <v>42</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>43</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>44</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>68</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>47</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F31" t="s">
         <v>48</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H31" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="B31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" t="s">
-        <v>70</v>
-      </c>
-      <c r="G31" t="s">
-        <v>71</v>
-      </c>
-      <c r="H31" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:18">
       <c r="B32" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:20">
       <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="B34" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" t="s">
+      <c r="C34" s="1"/>
+      <c r="D34" t="s">
         <v>67</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E34" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" t="s">
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="E35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="E34" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" t="s">
-        <v>51</v>
-      </c>
-      <c r="E37" t="s">
-        <v>31</v>
-      </c>
-      <c r="F37" t="s">
-        <v>57</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
     </row>
     <row r="38" spans="1:20">
       <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
-      <c r="B39" s="10" t="s">
-        <v>82</v>
-      </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="2" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:20">
+      <c r="A40" s="5" t="s">
+        <v>167</v>
+      </c>
       <c r="B40" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="41" spans="1:20">
+      <c r="A41" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="B41" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="2" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:20">
+      <c r="A42" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="B42" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="2" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
+        <v>101</v>
+      </c>
     </row>
     <row r="43" spans="1:20">
+      <c r="A43" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="B43" s="10" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="2" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
@@ -2537,22 +2850,25 @@
       <c r="T43" s="5"/>
     </row>
     <row r="44" spans="1:20">
+      <c r="A44" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="B44" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="2">
-        <v>0</v>
+      <c r="F44" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
@@ -2563,22 +2879,25 @@
       <c r="T44" s="5"/>
     </row>
     <row r="45" spans="1:20">
+      <c r="A45" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="B45" s="10" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="2" t="s">
-        <v>100</v>
+      <c r="F45" s="2">
+        <v>0</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
@@ -2589,22 +2908,25 @@
       <c r="T45" s="5"/>
     </row>
     <row r="46" spans="1:20">
+      <c r="A46" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="B46" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="2" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
@@ -2615,22 +2937,25 @@
       <c r="T46" s="5"/>
     </row>
     <row r="47" spans="1:20">
+      <c r="A47" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="B47" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="2">
-        <v>0</v>
+      <c r="F47" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
@@ -2641,22 +2966,25 @@
       <c r="T47" s="5"/>
     </row>
     <row r="48" spans="1:20">
+      <c r="A48" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="B48" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C48" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="2" t="s">
-        <v>100</v>
+      <c r="F48" s="2">
+        <v>0</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
@@ -2666,22 +2994,27 @@
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:21">
+      <c r="A49" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="B49" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="2" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M49" s="5"/>
+        <v>105</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
@@ -2690,20 +3023,23 @@
       <c r="S49" s="5"/>
       <c r="T49" s="5"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:21">
+      <c r="A50" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="B50" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C50" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="2">
-        <v>0</v>
+      <c r="F50" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
@@ -2714,123 +3050,314 @@
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
     </row>
-    <row r="51" spans="1:20">
-      <c r="B51" t="s">
-        <v>88</v>
+    <row r="51" spans="1:21">
+      <c r="A51" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="C51" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="2" t="s">
-        <v>100</v>
+      <c r="F51" s="2">
+        <v>0</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20">
+        <v>131</v>
+      </c>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="2" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20">
-      <c r="A54" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
+      <c r="A55" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
         <v>43</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>44</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D55" t="s">
         <v>68</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E55" t="s">
         <v>47</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F55" t="s">
         <v>48</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H55" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
-      <c r="B55" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" t="s">
-        <v>97</v>
-      </c>
-      <c r="E55" t="s">
-        <v>137</v>
-      </c>
-      <c r="G55" t="s">
-        <v>141</v>
-      </c>
-      <c r="H55" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:21">
       <c r="B56" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G56" s="10"/>
+      <c r="D56" t="s">
+        <v>95</v>
+      </c>
+      <c r="E56" t="s">
+        <v>133</v>
+      </c>
+      <c r="G56" t="s">
+        <v>136</v>
+      </c>
       <c r="H56" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="B57" t="s">
+        <v>109</v>
+      </c>
       <c r="C57" s="1"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="10" t="s">
-        <v>130</v>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="G57" s="10"/>
       <c r="H57" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" s="3" customFormat="1">
-      <c r="B58" s="3" t="s">
         <v>125</v>
       </c>
+    </row>
+    <row r="58" spans="1:21">
       <c r="C58" s="1"/>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G58" s="10"/>
+      <c r="H58" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" s="3" customFormat="1">
+      <c r="B59" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H59" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>127</v>
-      </c>
+    </row>
+    <row r="60" spans="1:21">
+      <c r="A60" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" t="s">
+        <v>144</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" t="s">
+        <v>154</v>
+      </c>
+      <c r="E61" t="s">
+        <v>153</v>
+      </c>
+      <c r="G61" t="s">
+        <v>145</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" t="s">
+        <v>152</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G62" t="s">
+        <v>145</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" s="5"/>
+      <c r="H64" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+    </row>
+    <row r="65" spans="1:21">
+      <c r="A65" s="5"/>
+      <c r="H65" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+    </row>
+    <row r="66" spans="1:21">
+      <c r="A66" s="5"/>
+      <c r="H66" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+    </row>
+    <row r="67" spans="1:21">
+      <c r="A67" s="5"/>
+      <c r="H67" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="183">
   <si>
     <t>種類</t>
     <rPh sb="0" eb="2">
@@ -548,13 +548,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メンバ変数</t>
-    <rPh sb="3" eb="5">
-      <t>ヘンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>weapon</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1214,7 +1207,262 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>引数にアイテム番号(1~3)を指定することで、アイテムを取得したことを設定できる。</t>
+    <t>item1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getItemStatus()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムの取得状況</t>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Bool]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムの取得状況を返却する。例；[true,true,false]</t>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getQuestFinished</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムが全て回収できたか</t>
+    <rPh sb="5" eb="6">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムを全て集めた場合はtrue,そうでなければfalseが返却される</t>
+    <rPh sb="5" eb="6">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追記</t>
+    <rPh sb="0" eb="2">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムの取得状況は、初期状態では[false,false,false]に設定されている。</t>
+    <rPh sb="5" eb="9">
+      <t>シュトクジョウキョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mapごとのアイテム数で、getNextQuest()を行った時の結果が代わる。初期状態：草原→[false,true,true]:　：海岸→[false,false,true]　：他→[false,false,false]</t>
+    <rPh sb="10" eb="11">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="40" eb="44">
+      <t>ショキジョウタイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ソウゲン</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>カイガン</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ホカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getItem(1~3)でアイテム取得状況を変更できる。海岸で、getItem(1)を行った場合、取得状況は、[true,false,true]となる。</t>
+    <rPh sb="17" eb="19">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カイガン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="49" eb="53">
+      <t>シュトクジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全てアイテムを集めると取得状況は[true,true,true]となり、getQuestFinished()の返却値はtrueとなる。</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>シュトクジョウキョウ</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>ヘンキャクチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Int?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーのレベルを管理します。HPと一緒の方式です。</t>
+    <rPh sb="10" eb="12">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レベル(0~?)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕様変更</t>
+    <rPh sb="0" eb="4">
+      <t>シヨウヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また、武器クエストが先に設定されれば、次のsetNextQuest()は必ず防具クエストになる。逆も然りである。変更：同じマップで２回以上行おうとするとエラー文が出ます。（実行されない）</t>
+    <rPh sb="3" eb="5">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ボウグ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>シカ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数にアイテム番号(1~3)を指定することで、アイテムを取得したことを設定できる。変更：アイテムが全て揃う[true,true,true]になると、自動的にそのクエストが終了したフラグが立ちます。それが２回（武器、防具）分行われるとgetMapQuestFinishedがtrueになります。</t>
     <rPh sb="0" eb="2">
       <t>ヒキスウ</t>
     </rPh>
@@ -1229,6 +1477,36 @@
     </rPh>
     <rPh sb="35" eb="37">
       <t>セッテイ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ソロ</t>
+    </rPh>
+    <rPh sb="74" eb="77">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ボウグ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1240,272 +1518,105 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>変更</t>
+    <t>getMapQuestFinished()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了:true していない:false</t>
     <rPh sb="0" eb="2">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>また、武器クエストが先に設定されれば、次のsetNextQuest()は必ず防具クエストになる。逆も然りである。つまり、1マップ2回行う。</t>
-    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無し</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのマップでのクエストが両方終わると、trueになります。マップを移動すると自動的にfalseになります。</t>
+    <rPh sb="12" eb="14">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>ジドウテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getQuestOfWeapon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YES:true NO:false</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのクエストが武器なのかどうか判断します。</t>
+    <rPh sb="7" eb="9">
       <t>ブキ</t>
     </rPh>
-    <rPh sb="10" eb="11">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>カナラ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
+    <rPh sb="15" eb="17">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getQuestOfArmor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのクエストが防具なのかどうか判断します。</t>
+    <rPh sb="7" eb="9">
       <t>ボウグ</t>
     </rPh>
-    <rPh sb="48" eb="49">
-      <t>ギャク</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>シカ</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>item1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>getItemStatus()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Bool</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アイテムの取得状況</t>
-    <rPh sb="5" eb="7">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[Bool]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アイテムの取得状況を返却する。例；[true,true,false]</t>
-    <rPh sb="5" eb="7">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヘンキャク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>getQuestFinished</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アイテムが全て回収できたか</t>
-    <rPh sb="5" eb="6">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カイシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アイテムを全て集めた場合はtrue,そうでなければfalseが返却される</t>
-    <rPh sb="5" eb="6">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>アツ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヘンキャク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>追記</t>
+    <rPh sb="15" eb="17">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getGrayMap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>灰色マップのパス</t>
     <rPh sb="0" eb="2">
-      <t>ツイキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アイテムの取得状況は、初期状態では[false,false,false]に設定されている。</t>
-    <rPh sb="5" eb="9">
-      <t>シュトクジョウキョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mapごとのアイテム数で、getNextQuest()を行った時の結果が代わる。初期状態：草原→[false,true,true]:　：海岸→[false,false,true]　：他→[false,false,false]</t>
-    <rPh sb="10" eb="11">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="40" eb="44">
-      <t>ショキジョウタイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ソウゲン</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>カイガン</t>
-    </rPh>
-    <rPh sb="91" eb="92">
-      <t>ホカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>getItem(1~3)でアイテム取得状況を変更できる。海岸で、getItem(1)を行った場合、取得状況は、[true,false,true]となる。</t>
-    <rPh sb="17" eb="19">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>カイガン</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="49" eb="53">
-      <t>シュトクジョウキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全てアイテムを集めると取得状況は[true,true,true]となり、getQuestFinished()の返却値はtrueとなる。</t>
-    <rPh sb="0" eb="1">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>アツ</t>
-    </rPh>
-    <rPh sb="11" eb="15">
-      <t>シュトクジョウキョウ</t>
-    </rPh>
-    <rPh sb="55" eb="58">
-      <t>ヘンキャクチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変更(内部仕様</t>
+      <t>ハイイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在マップの灰色マップパスを返します</t>
     <rPh sb="0" eb="2">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="3" eb="7">
-      <t>ナイブシヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>nilだとクラッシュ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>したので</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変更(初期値）</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>追加</t>
-    <rPh sb="0" eb="2">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Int?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Int</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤーのレベルを管理します。HPと一緒の方式です。</t>
-    <rPh sb="10" eb="12">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>イッショ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ホウシキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レベル(0~?)</t>
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハイイロ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カエ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1513,7 +1624,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1786,7 +1897,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1818,9 +1929,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="43" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="42" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2170,13 +2278,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U67"/>
+  <dimension ref="A2:T71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
@@ -2187,12 +2295,12 @@
     <col min="7" max="7" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2206,7 +2314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2220,7 +2328,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2234,7 +2342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -2245,7 +2353,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -2256,17 +2364,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -2274,7 +2382,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2297,7 +2405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -2320,7 +2428,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>34</v>
       </c>
@@ -2340,33 +2448,30 @@
         <v>37</v>
       </c>
       <c r="M14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="5" t="s">
-        <v>168</v>
-      </c>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C15" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D15" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E15" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>21</v>
       </c>
@@ -2382,7 +2487,7 @@
         <v>38</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
@@ -2390,7 +2495,7 @@
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -2406,7 +2511,7 @@
         <v>39</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
@@ -2414,7 +2519,7 @@
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>23</v>
       </c>
@@ -2436,7 +2541,7 @@
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>24</v>
       </c>
@@ -2458,7 +2563,7 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -2481,10 +2586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="5" t="s">
-        <v>164</v>
-      </c>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>45</v>
       </c>
@@ -2498,13 +2600,10 @@
         <v>49</v>
       </c>
       <c r="H22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="5" t="s">
-        <v>164</v>
-      </c>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>46</v>
       </c>
@@ -2518,20 +2617,20 @@
         <v>24</v>
       </c>
       <c r="H23" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -2539,7 +2638,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -2562,7 +2661,7 @@
         <v>15</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
@@ -2570,7 +2669,7 @@
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -2589,7 +2688,7 @@
         <v>55</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
@@ -2597,7 +2696,7 @@
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>53</v>
       </c>
@@ -2613,7 +2712,7 @@
         <v>56</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
@@ -2621,9 +2720,9 @@
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="M30" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
@@ -2631,7 +2730,7 @@
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2654,7 +2753,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>65</v>
       </c>
@@ -2671,7 +2770,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>76</v>
       </c>
@@ -2688,7 +2787,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>66</v>
       </c>
@@ -2705,12 +2804,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
       <c r="E35" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
         <v>78</v>
       </c>
@@ -2721,7 +2820,7 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -2744,102 +2843,87 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B39" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>80</v>
-      </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20">
-      <c r="A40" s="5" t="s">
-        <v>167</v>
-      </c>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B40" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
-      <c r="A41" s="5" t="s">
-        <v>165</v>
-      </c>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B41" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20">
-      <c r="A42" s="5" t="s">
-        <v>166</v>
-      </c>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B42" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20">
-      <c r="A43" s="5" t="s">
-        <v>148</v>
-      </c>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B43" s="10" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
@@ -2849,26 +2933,23 @@
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
     </row>
-    <row r="44" spans="1:20">
-      <c r="A44" s="5" t="s">
-        <v>148</v>
-      </c>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B44" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
@@ -2878,15 +2959,12 @@
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
     </row>
-    <row r="45" spans="1:20">
-      <c r="A45" s="5" t="s">
-        <v>148</v>
-      </c>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B45" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -2894,10 +2972,10 @@
         <v>0</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
@@ -2907,26 +2985,23 @@
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
     </row>
-    <row r="46" spans="1:20">
-      <c r="A46" s="5" t="s">
-        <v>148</v>
-      </c>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B46" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
@@ -2936,26 +3011,23 @@
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
     </row>
-    <row r="47" spans="1:20">
-      <c r="A47" s="5" t="s">
-        <v>148</v>
-      </c>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B47" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
@@ -2965,15 +3037,12 @@
       <c r="S47" s="5"/>
       <c r="T47" s="5"/>
     </row>
-    <row r="48" spans="1:20">
-      <c r="A48" s="5" t="s">
-        <v>148</v>
-      </c>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B48" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2981,10 +3050,10 @@
         <v>0</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
@@ -2994,26 +3063,23 @@
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
     </row>
-    <row r="49" spans="1:21">
-      <c r="A49" s="5" t="s">
-        <v>148</v>
-      </c>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B49" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
@@ -3023,23 +3089,20 @@
       <c r="S49" s="5"/>
       <c r="T49" s="5"/>
     </row>
-    <row r="50" spans="1:21">
-      <c r="A50" s="5" t="s">
-        <v>148</v>
-      </c>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B50" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
@@ -3050,15 +3113,12 @@
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
     </row>
-    <row r="51" spans="1:21">
-      <c r="A51" s="5" t="s">
-        <v>148</v>
-      </c>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -3066,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
@@ -3077,47 +3137,41 @@
       <c r="S51" s="5"/>
       <c r="T51" s="5"/>
     </row>
-    <row r="52" spans="1:21">
-      <c r="A52" s="5" t="s">
-        <v>148</v>
-      </c>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21">
-      <c r="A53" s="5" t="s">
-        <v>148</v>
-      </c>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" t="s">
         <v>87</v>
-      </c>
-      <c r="C53" t="s">
-        <v>88</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G53" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A55" s="4" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21">
-      <c r="A55" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="B55" t="s">
         <v>43</v>
@@ -3138,226 +3192,244 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:21">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E56" t="s">
+        <v>132</v>
+      </c>
+      <c r="G56" t="s">
+        <v>135</v>
+      </c>
+      <c r="H56" t="s">
         <v>133</v>
       </c>
-      <c r="G56" t="s">
-        <v>136</v>
-      </c>
-      <c r="H56" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21">
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A57" s="5" t="s">
+        <v>164</v>
+      </c>
       <c r="B57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G57" s="10"/>
       <c r="H57" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C58" s="1"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G58" s="10"/>
       <c r="H58" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" s="3" customFormat="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B59" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E59" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="H59" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" t="s">
         <v>143</v>
-      </c>
-      <c r="C60" t="s">
-        <v>144</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H60" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B61" s="2" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21">
-      <c r="A61" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E61" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21">
-      <c r="A62" s="5" t="s">
-        <v>147</v>
-      </c>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B62" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" t="s">
+        <v>147</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="G62" t="s">
+        <v>144</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="H63" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="H64" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H65" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H66" t="s">
         <v>157</v>
       </c>
-      <c r="G62" t="s">
-        <v>145</v>
-      </c>
-      <c r="H62" s="2" t="s">
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H67" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="1:21">
-      <c r="A63" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="5"/>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="5"/>
-      <c r="U63" s="5"/>
-    </row>
-    <row r="64" spans="1:21">
-      <c r="A64" s="5"/>
-      <c r="H64" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
-      <c r="U64" s="5"/>
-    </row>
-    <row r="65" spans="1:21">
-      <c r="A65" s="5"/>
-      <c r="H65" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
-      <c r="O65" s="5"/>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5"/>
-      <c r="T65" s="5"/>
-      <c r="U65" s="5"/>
-    </row>
-    <row r="66" spans="1:21">
-      <c r="A66" s="5"/>
-      <c r="H66" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
-      <c r="U66" s="5"/>
-    </row>
-    <row r="67" spans="1:21">
-      <c r="A67" s="5"/>
-      <c r="H67" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5"/>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B68" t="s">
+        <v>168</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" t="s">
+        <v>169</v>
+      </c>
+      <c r="E68" t="s">
+        <v>170</v>
+      </c>
+      <c r="G68" t="s">
+        <v>171</v>
+      </c>
+      <c r="H68" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69" t="s">
+        <v>173</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" t="s">
+        <v>174</v>
+      </c>
+      <c r="E69" t="s">
+        <v>175</v>
+      </c>
+      <c r="F69" t="s">
+        <v>171</v>
+      </c>
+      <c r="G69" t="s">
+        <v>171</v>
+      </c>
+      <c r="H69" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B70" t="s">
+        <v>177</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" t="s">
+        <v>174</v>
+      </c>
+      <c r="E70" t="s">
+        <v>175</v>
+      </c>
+      <c r="F70" t="s">
+        <v>171</v>
+      </c>
+      <c r="G70" t="s">
+        <v>171</v>
+      </c>
+      <c r="H70" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B71" t="s">
+        <v>179</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" t="s">
+        <v>180</v>
+      </c>
+      <c r="E71" t="s">
+        <v>181</v>
+      </c>
+      <c r="F71" t="s">
+        <v>171</v>
+      </c>
+      <c r="G71" t="s">
+        <v>171</v>
+      </c>
+      <c r="H71" t="s">
+        <v>182</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3377,7 +3449,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3395,7 +3467,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
